--- a/result/metrics_values/hanzo-cloud.xlsx
+++ b/result/metrics_values/hanzo-cloud.xlsx
@@ -484,7 +484,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hanzo-demo-test</t>
+          <t>hanzo-cloud-system</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -504,7 +504,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.16872427983539096</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -524,61 +524,61 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.712360381661133e-05</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hanzo-log-producer</t>
+          <t>hanzo-starter-log</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.0124223602484472</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.07738095238095237</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.0038278817286512444</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0003845254320821806</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hanzo-cloud-system</t>
+          <t>hanzo-demo-test</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.16872427983539096</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -618,54 +618,54 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>8.712360381661133e-05</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hanzo-starter-log</t>
+          <t>hanzo-log-producer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0124223602484472</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.07738095238095237</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.003960978445598893</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.00036087358723828274</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -760,12 +760,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hanzo-demo-test</t>
+          <t>hanzo-cloud-system</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>hanzo-log-producer</t>
+          <t>hanzo-starter-log</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -782,12 +782,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>hanzo-cloud-system</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>hanzo-demo-test</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>hanzo-cloud-system</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -804,29 +804,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hanzo-demo-test</t>
+          <t>hanzo-cloud-system</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hanzo-starter-log</t>
+          <t>hanzo-log-producer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.003572067756481065</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0123456790123457</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hanzo-demo-test</t>
+          <t>hanzo-cloud-system</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -848,12 +848,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hanzo-log-producer</t>
+          <t>hanzo-starter-log</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>hanzo-demo-test</t>
+          <t>hanzo-cloud-system</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -870,12 +870,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hanzo-log-producer</t>
+          <t>hanzo-starter-log</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>hanzo-cloud-system</t>
+          <t>hanzo-demo-test</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -892,29 +892,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>hanzo-starter-log</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>hanzo-log-producer</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>hanzo-starter-log</t>
-        </is>
-      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.029031670122204634</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0833333333333333</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hanzo-log-producer</t>
+          <t>hanzo-starter-log</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -936,12 +936,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>hanzo-demo-test</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>hanzo-cloud-system</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>hanzo-demo-test</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -958,34 +958,34 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hanzo-cloud-system</t>
+          <t>hanzo-demo-test</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>hanzo-log-producer</t>
+          <t>hanzo-starter-log</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.003572067756481065</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.0123456790123457</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hanzo-cloud-system</t>
+          <t>hanzo-demo-test</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>hanzo-starter-log</t>
+          <t>hanzo-log-producer</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1002,7 +1002,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hanzo-cloud-system</t>
+          <t>hanzo-demo-test</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1024,12 +1024,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hanzo-starter-log</t>
+          <t>hanzo-log-producer</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>hanzo-demo-test</t>
+          <t>hanzo-cloud-system</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1046,34 +1046,34 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>hanzo-log-producer</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>hanzo-starter-log</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>hanzo-log-producer</t>
-        </is>
-      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.027245955836490345</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.0833333333333333</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hanzo-starter-log</t>
+          <t>hanzo-log-producer</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>hanzo-cloud-system</t>
+          <t>hanzo-demo-test</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1090,7 +1090,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hanzo-starter-log</t>
+          <t>hanzo-log-producer</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>hanzo-demo-test</t>
+          <t>hanzo-cloud-system</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>hanzo-log-producer</t>
+          <t>hanzo-starter-log</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>hanzo-cloud-system</t>
+          <t>hanzo-demo-test</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>hanzo-starter-log</t>
+          <t>hanzo-log-producer</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
